--- a/Code/Results/Cases/Case_3_89/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_89/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.12388479369388</v>
+        <v>9.217309109643015</v>
       </c>
       <c r="C2">
-        <v>6.276637818310929</v>
+        <v>4.895899660347447</v>
       </c>
       <c r="D2">
-        <v>4.332613871417889</v>
+        <v>5.219366465294583</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.61098821565784</v>
+        <v>27.06372233065336</v>
       </c>
       <c r="G2">
-        <v>30.84043560522402</v>
+        <v>33.76926825462541</v>
       </c>
       <c r="H2">
-        <v>10.36931200069926</v>
+        <v>15.35851858051627</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.66153869504415</v>
+        <v>8.53723674707112</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.85496244236321</v>
+        <v>19.97530439811406</v>
       </c>
       <c r="N2">
-        <v>12.6368917089553</v>
+        <v>19.3691088453517</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.31726980204961</v>
+        <v>8.981433454413791</v>
       </c>
       <c r="C3">
-        <v>6.00440811045125</v>
+        <v>4.774958898174502</v>
       </c>
       <c r="D3">
-        <v>4.284520272203872</v>
+        <v>5.196141735060422</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.94600971350871</v>
+        <v>26.99952462110661</v>
       </c>
       <c r="G3">
-        <v>29.82213010049846</v>
+        <v>33.62950023259593</v>
       </c>
       <c r="H3">
-        <v>10.31146553301055</v>
+        <v>15.38434201346014</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.04543920621841</v>
+        <v>8.389330491237031</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.56030375700941</v>
+        <v>19.38202190400647</v>
       </c>
       <c r="N3">
-        <v>12.85715636009652</v>
+        <v>19.42977637976933</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.79358816288061</v>
+        <v>8.835786290094894</v>
       </c>
       <c r="C4">
-        <v>5.830066474042509</v>
+        <v>4.698123739034182</v>
       </c>
       <c r="D4">
-        <v>4.253790491965908</v>
+        <v>5.181455967501355</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.5487540404539</v>
+        <v>26.96703258262055</v>
       </c>
       <c r="G4">
-        <v>29.21303306922291</v>
+        <v>33.55352056854566</v>
       </c>
       <c r="H4">
-        <v>10.28309425646611</v>
+        <v>15.40282289812294</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.647496586549096</v>
+        <v>8.299225291041834</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.10140126216541</v>
+        <v>19.01659802019375</v>
       </c>
       <c r="N4">
-        <v>12.99544435248279</v>
+        <v>19.46888453440714</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.57299975462309</v>
+        <v>8.776327097726636</v>
       </c>
       <c r="C5">
-        <v>5.757267934141677</v>
+        <v>4.666188623533321</v>
       </c>
       <c r="D5">
-        <v>4.24098721252699</v>
+        <v>5.175365702882949</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.38975671910371</v>
+        <v>26.95554054449997</v>
       </c>
       <c r="G5">
-        <v>28.96904805493268</v>
+        <v>33.52505171708774</v>
       </c>
       <c r="H5">
-        <v>10.27326500859903</v>
+        <v>15.41101318196059</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.480425539716636</v>
+        <v>8.262737204131199</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.49348606845247</v>
+        <v>18.86764624249121</v>
       </c>
       <c r="N5">
-        <v>13.05259321284188</v>
+        <v>19.48528959959164</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.53593626417221</v>
+        <v>8.76645046888712</v>
       </c>
       <c r="C6">
-        <v>5.745075675204717</v>
+        <v>4.660848855290743</v>
       </c>
       <c r="D6">
-        <v>4.238844874707716</v>
+        <v>5.174348074997267</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.3635330507744</v>
+        <v>26.95373809411303</v>
       </c>
       <c r="G6">
-        <v>28.92879493211127</v>
+        <v>33.520475582966</v>
       </c>
       <c r="H6">
-        <v>10.27173560241344</v>
+        <v>15.41241295496094</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.452388514847472</v>
+        <v>8.256693832079854</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.39171046714377</v>
+        <v>18.84291810217589</v>
       </c>
       <c r="N6">
-        <v>13.06213159514129</v>
+        <v>19.48804195294761</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.79064236656466</v>
+        <v>8.834984701109599</v>
       </c>
       <c r="C7">
-        <v>5.829091706750297</v>
+        <v>4.697695545332333</v>
       </c>
       <c r="D7">
-        <v>4.253618932049402</v>
+        <v>5.18137425825585</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.54659790565959</v>
+        <v>26.96687050836189</v>
       </c>
       <c r="G7">
-        <v>29.2097252573637</v>
+        <v>33.55312650880376</v>
       </c>
       <c r="H7">
-        <v>10.2829547673669</v>
+        <v>15.40293068757269</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.645263215701885</v>
+        <v>8.298732197689279</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.09325798939541</v>
+        <v>19.01458902241837</v>
       </c>
       <c r="N7">
-        <v>12.9962118241503</v>
+        <v>19.46910388203826</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.85163793868677</v>
+        <v>9.136207166307548</v>
       </c>
       <c r="C8">
-        <v>6.184296911471963</v>
+        <v>4.854747916808733</v>
       </c>
       <c r="D8">
-        <v>4.316293546665175</v>
+        <v>5.211447731707866</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>22.37947552792146</v>
+        <v>27.04015443768767</v>
       </c>
       <c r="G8">
-        <v>30.4860673123647</v>
+        <v>33.71904709552842</v>
       </c>
       <c r="H8">
-        <v>10.34784415078855</v>
+        <v>15.36687709599117</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.45320484486286</v>
+        <v>8.486122448185613</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.07359731302805</v>
+        <v>19.77112443080883</v>
       </c>
       <c r="N8">
-        <v>12.71222596570197</v>
+        <v>19.38964195081922</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.70863250058505</v>
+        <v>9.716287808207325</v>
       </c>
       <c r="C9">
-        <v>6.82164083428818</v>
+        <v>5.141321731131037</v>
       </c>
       <c r="D9">
-        <v>4.428618316430668</v>
+        <v>5.266986654790154</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>24.09614655905198</v>
+        <v>27.23841616172269</v>
       </c>
       <c r="G9">
-        <v>33.11109119975544</v>
+        <v>34.12145164362891</v>
       </c>
       <c r="H9">
-        <v>10.53473396763819</v>
+        <v>15.31704563723854</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.88063134896655</v>
+        <v>8.856965611006476</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.56636552443233</v>
+        <v>21.23529182406624</v>
       </c>
       <c r="N9">
-        <v>12.1779423990188</v>
+        <v>19.24851564455164</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.93936111616016</v>
+        <v>10.13085177429639</v>
       </c>
       <c r="C10">
-        <v>7.251149960589069</v>
+        <v>5.337659789279462</v>
       </c>
       <c r="D10">
-        <v>4.502980808377451</v>
+        <v>5.305622603666517</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>25.40423047783564</v>
+        <v>27.41668317894058</v>
       </c>
       <c r="G10">
-        <v>35.10935382004355</v>
+        <v>34.46244362415755</v>
       </c>
       <c r="H10">
-        <v>10.71254795420353</v>
+        <v>15.29320730794206</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.83299670877307</v>
+        <v>9.128518200917576</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.46536002248202</v>
+        <v>22.28646077334837</v>
       </c>
       <c r="N10">
-        <v>11.7965955541495</v>
+        <v>19.15372719942405</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.47084925342999</v>
+        <v>10.31595003317105</v>
       </c>
       <c r="C11">
-        <v>7.437576144302407</v>
+        <v>5.42368256956825</v>
       </c>
       <c r="D11">
-        <v>4.534549928451191</v>
+        <v>5.322712771262961</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>26.00931698919974</v>
+        <v>27.50468454786051</v>
       </c>
       <c r="G11">
-        <v>36.03381205855889</v>
+        <v>34.62700113022541</v>
       </c>
       <c r="H11">
-        <v>10.80318727512365</v>
+        <v>15.28514471673489</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.24529724026649</v>
+        <v>9.25125902457056</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.2331437989208</v>
+        <v>22.75696930947696</v>
       </c>
       <c r="N11">
-        <v>11.6247794103074</v>
+        <v>19.11252402755295</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.66807835471327</v>
+        <v>10.3854673134243</v>
       </c>
       <c r="C12">
-        <v>7.506830065314743</v>
+        <v>5.455768114098496</v>
       </c>
       <c r="D12">
-        <v>4.546125820835296</v>
+        <v>5.329113231945664</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>26.23993951336213</v>
+        <v>27.53898385489197</v>
       </c>
       <c r="G12">
-        <v>36.38624086793165</v>
+        <v>34.690632313763</v>
       </c>
       <c r="H12">
-        <v>10.83899753690594</v>
+        <v>15.28249208239367</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.39841259971495</v>
+        <v>9.297576857429572</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>40.90440399291136</v>
+        <v>22.93386134027847</v>
       </c>
       <c r="N12">
-        <v>11.55987057020755</v>
+        <v>19.09719611726489</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.62578022028899</v>
+        <v>10.37052222326885</v>
       </c>
       <c r="C13">
-        <v>7.491975618766709</v>
+        <v>5.448879923190409</v>
       </c>
       <c r="D13">
-        <v>4.543650601232205</v>
+        <v>5.327737967585082</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>26.19020313535916</v>
+        <v>27.53155382325802</v>
       </c>
       <c r="G13">
-        <v>36.31023073382399</v>
+        <v>34.67687030669521</v>
       </c>
       <c r="H13">
-        <v>10.83121757157203</v>
+        <v>15.2830455558904</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.36557059071034</v>
+        <v>9.287609402557282</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.75970284990751</v>
+        <v>22.89582399503377</v>
       </c>
       <c r="N13">
-        <v>11.5738446228484</v>
+        <v>19.10048504549824</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.4871559935143</v>
+        <v>10.32168119414064</v>
       </c>
       <c r="C14">
-        <v>7.443300934085808</v>
+        <v>5.426332161371193</v>
       </c>
       <c r="D14">
-        <v>4.535510232998073</v>
+        <v>5.323240776214702</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>26.02826009298427</v>
+        <v>27.50748693957509</v>
       </c>
       <c r="G14">
-        <v>36.06275814877496</v>
+        <v>34.63220995623404</v>
       </c>
       <c r="H14">
-        <v>10.80610308603991</v>
+        <v>15.28491845398027</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.25795456333752</v>
+        <v>9.255073122608035</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.28831368798254</v>
+        <v>22.77154891009991</v>
       </c>
       <c r="N14">
-        <v>11.61943680786787</v>
+        <v>19.11125748732472</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.40172067978157</v>
+        <v>10.29168763515643</v>
       </c>
       <c r="C15">
-        <v>7.413309822417485</v>
+        <v>5.41245682161103</v>
       </c>
       <c r="D15">
-        <v>4.530472869150346</v>
+        <v>5.320476801171075</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25.92926175602721</v>
+        <v>27.49287169977303</v>
       </c>
       <c r="G15">
-        <v>35.91148702191045</v>
+        <v>34.6050244444672</v>
       </c>
       <c r="H15">
-        <v>10.79091606880139</v>
+        <v>15.28611782707783</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.19164400527534</v>
+        <v>9.235121302786336</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>39.99990684709427</v>
+        <v>22.69525529522716</v>
       </c>
       <c r="N15">
-        <v>11.64738047265725</v>
+        <v>19.1178916884835</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.9040601113106</v>
+        <v>10.11867852002118</v>
       </c>
       <c r="C16">
-        <v>7.238781926033883</v>
+        <v>5.331970346739405</v>
       </c>
       <c r="D16">
-        <v>4.500867946359024</v>
+        <v>5.304495831253697</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>25.36489110857862</v>
+        <v>27.41106955671495</v>
       </c>
       <c r="G16">
-        <v>35.04925801448046</v>
+        <v>34.45187594079827</v>
       </c>
       <c r="H16">
-        <v>10.70682775606013</v>
+        <v>15.29379023596244</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.80563036577289</v>
+        <v>9.120476763203031</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.34992522708428</v>
+        <v>22.25554209649647</v>
       </c>
       <c r="N16">
-        <v>11.80785087693274</v>
+        <v>19.15645842415999</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.59152694507731</v>
+        <v>10.01159502956225</v>
       </c>
       <c r="C17">
-        <v>7.129384579216129</v>
+        <v>5.281739390323835</v>
       </c>
       <c r="D17">
-        <v>4.482093550279702</v>
+        <v>5.29456667077324</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>25.02125175651244</v>
+        <v>27.36264325141697</v>
       </c>
       <c r="G17">
-        <v>34.52432455713807</v>
+        <v>34.36031387769743</v>
       </c>
       <c r="H17">
-        <v>10.65779779059208</v>
+        <v>15.29920984094078</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.56345932960304</v>
+        <v>9.049909002752129</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.33789102866995</v>
+        <v>21.98369633148512</v>
       </c>
       <c r="N17">
-        <v>11.90666665267758</v>
+        <v>19.18060819710647</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.40909241970529</v>
+        <v>9.949679054925717</v>
       </c>
       <c r="C18">
-        <v>7.065622303429619</v>
+        <v>5.252538833168711</v>
       </c>
       <c r="D18">
-        <v>4.471086286684928</v>
+        <v>5.288810063435566</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.82453773367799</v>
+        <v>27.33544101477883</v>
       </c>
       <c r="G18">
-        <v>34.22383565440497</v>
+        <v>34.30854080931621</v>
       </c>
       <c r="H18">
-        <v>10.63050938744237</v>
+        <v>15.3025888481484</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.42219857815378</v>
+        <v>9.009248683454215</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.75504418848649</v>
+        <v>21.82662499388166</v>
       </c>
       <c r="N18">
-        <v>11.96366536261469</v>
+        <v>19.19467894870405</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.34686257952409</v>
+        <v>9.928662003195114</v>
       </c>
       <c r="C19">
-        <v>7.043890742055703</v>
+        <v>5.242599460168465</v>
       </c>
       <c r="D19">
-        <v>4.467324994058423</v>
+        <v>5.286853183227244</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.75809445950709</v>
+        <v>27.3263431888434</v>
       </c>
       <c r="G19">
-        <v>34.12234008781229</v>
+        <v>34.2911655544914</v>
       </c>
       <c r="H19">
-        <v>10.62142423354821</v>
+        <v>15.30377786772148</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.37403178844091</v>
+        <v>8.995470993722504</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.55750317922066</v>
+        <v>21.77332654662257</v>
       </c>
       <c r="N19">
-        <v>11.98299425130213</v>
+        <v>19.19947407784141</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.62507301306911</v>
+        <v>10.02302837577395</v>
       </c>
       <c r="C20">
-        <v>7.141117389076941</v>
+        <v>5.28711866634044</v>
       </c>
       <c r="D20">
-        <v>4.484114066135771</v>
+        <v>5.295628378205868</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>25.05773550754483</v>
+        <v>27.36773103367936</v>
       </c>
       <c r="G20">
-        <v>34.58005507257481</v>
+        <v>34.36996888351251</v>
       </c>
       <c r="H20">
-        <v>10.66292210060024</v>
+        <v>15.29860581601784</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.58944279659382</v>
+        <v>9.057428826540031</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.44568450913895</v>
+        <v>22.01270988237681</v>
       </c>
       <c r="N20">
-        <v>11.89613126329924</v>
+        <v>19.17801874319435</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.52798240333586</v>
+        <v>10.33604316181844</v>
       </c>
       <c r="C21">
-        <v>7.457634753150977</v>
+        <v>5.432968387992535</v>
       </c>
       <c r="D21">
-        <v>4.537912034265211</v>
+        <v>5.324563654137835</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>26.07578557140823</v>
+        <v>27.51452965518185</v>
       </c>
       <c r="G21">
-        <v>36.13538120310098</v>
+        <v>34.6452923813528</v>
       </c>
       <c r="H21">
-        <v>10.81343874012507</v>
+        <v>15.28435746572616</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.28964583352493</v>
+        <v>9.264634568989885</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.42669682117494</v>
+        <v>22.80808755323138</v>
       </c>
       <c r="N21">
-        <v>11.6060418965647</v>
+        <v>19.10808590703155</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.09459345178389</v>
+        <v>10.53723259284068</v>
       </c>
       <c r="C22">
-        <v>7.656643901392937</v>
+        <v>5.525430564285868</v>
       </c>
       <c r="D22">
-        <v>4.570828308540975</v>
+        <v>5.343058798633841</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>26.7498939875337</v>
+        <v>27.61614512125516</v>
       </c>
       <c r="G22">
-        <v>37.1657697015871</v>
+        <v>34.83288702624247</v>
       </c>
       <c r="H22">
-        <v>10.92052437691209</v>
+        <v>15.27737987356204</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.72969757992973</v>
+        <v>9.399093832042205</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.3875705874584</v>
+        <v>23.32038622368546</v>
       </c>
       <c r="N22">
-        <v>11.41728992715471</v>
+        <v>19.06398237314809</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.79431704974018</v>
+        <v>10.43018639554793</v>
       </c>
       <c r="C23">
-        <v>7.551168041231566</v>
+        <v>5.476348254392343</v>
       </c>
       <c r="D23">
-        <v>4.553487488725059</v>
+        <v>5.33322608866601</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>26.38927522861938</v>
+        <v>27.56139825536871</v>
       </c>
       <c r="G23">
-        <v>36.61448242101132</v>
+        <v>34.73207787626031</v>
       </c>
       <c r="H23">
-        <v>10.86254293878055</v>
+        <v>15.28089020260372</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.4964433797685</v>
+        <v>9.327433617235185</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.33874814392212</v>
+        <v>23.04770519167154</v>
       </c>
       <c r="N23">
-        <v>11.51798910275079</v>
+        <v>19.08737495850187</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.60991542063344</v>
+        <v>10.0178604514716</v>
       </c>
       <c r="C24">
-        <v>7.135815686383472</v>
+        <v>5.284687697729735</v>
       </c>
       <c r="D24">
-        <v>4.483201252418115</v>
+        <v>5.295148530304101</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>25.04123856240957</v>
+        <v>27.36542885658566</v>
       </c>
       <c r="G24">
-        <v>34.5548552586472</v>
+        <v>34.36560115127495</v>
       </c>
       <c r="H24">
-        <v>10.66060260436698</v>
+        <v>15.29887807590326</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.57770200453973</v>
+        <v>9.05402939079716</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.39695442908108</v>
+        <v>21.99959528318082</v>
       </c>
       <c r="N24">
-        <v>11.90089372062082</v>
+        <v>19.17918885364213</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.22993147240771</v>
+        <v>9.561050761755732</v>
       </c>
       <c r="C25">
-        <v>6.655843801826858</v>
+        <v>5.066213712236584</v>
       </c>
       <c r="D25">
-        <v>4.399524196085961</v>
+        <v>5.252337385847698</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.62332321109317</v>
+        <v>27.17900099224918</v>
       </c>
       <c r="G25">
-        <v>32.38856078856519</v>
+        <v>34.0044966900619</v>
       </c>
       <c r="H25">
-        <v>10.47736976830167</v>
+        <v>15.32828650364864</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.51137428617422</v>
+        <v>8.756592622964893</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.11102394502308</v>
+        <v>20.8426488938148</v>
       </c>
       <c r="N25">
-        <v>12.32029940136759</v>
+        <v>19.2851271173574</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_89/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_89/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.217309109643015</v>
+        <v>12.12388479369389</v>
       </c>
       <c r="C2">
-        <v>4.895899660347447</v>
+        <v>6.276637818311317</v>
       </c>
       <c r="D2">
-        <v>5.219366465294583</v>
+        <v>4.332613871417703</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.06372233065336</v>
+        <v>22.61098821565771</v>
       </c>
       <c r="G2">
-        <v>33.76926825462541</v>
+        <v>30.84043560522367</v>
       </c>
       <c r="H2">
-        <v>15.35851858051627</v>
+        <v>10.3693120006992</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.53723674707112</v>
+        <v>10.66153869504423</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.97530439811406</v>
+        <v>29.85496244236319</v>
       </c>
       <c r="N2">
-        <v>19.3691088453517</v>
+        <v>12.6368917089552</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.981433454413791</v>
+        <v>11.31726980204967</v>
       </c>
       <c r="C3">
-        <v>4.774958898174502</v>
+        <v>6.004408110451238</v>
       </c>
       <c r="D3">
-        <v>5.196141735060422</v>
+        <v>4.284520272203875</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.99952462110661</v>
+        <v>21.94600971350862</v>
       </c>
       <c r="G3">
-        <v>33.62950023259593</v>
+        <v>29.82213010049829</v>
       </c>
       <c r="H3">
-        <v>15.38434201346014</v>
+        <v>10.3114655330105</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.389330491237031</v>
+        <v>10.04543920621844</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.38202190400647</v>
+        <v>27.56030375700945</v>
       </c>
       <c r="N3">
-        <v>19.42977637976933</v>
+        <v>12.85715636009644</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.835786290094894</v>
+        <v>10.79358816288055</v>
       </c>
       <c r="C4">
-        <v>4.698123739034182</v>
+        <v>5.830066474042477</v>
       </c>
       <c r="D4">
-        <v>5.181455967501355</v>
+        <v>4.253790491966025</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.96703258262055</v>
+        <v>21.54875404045411</v>
       </c>
       <c r="G4">
-        <v>33.55352056854566</v>
+        <v>29.21303306922323</v>
       </c>
       <c r="H4">
-        <v>15.40282289812294</v>
+        <v>10.28309425646623</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.299225291041834</v>
+        <v>9.647496586549034</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.01659802019375</v>
+        <v>26.1014012621654</v>
       </c>
       <c r="N4">
-        <v>19.46888453440714</v>
+        <v>12.99544435248292</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.776327097726636</v>
+        <v>10.57299975462311</v>
       </c>
       <c r="C5">
-        <v>4.666188623533321</v>
+        <v>5.757267934141677</v>
       </c>
       <c r="D5">
-        <v>5.175365702882949</v>
+        <v>4.240987212527045</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.95554054449997</v>
+        <v>21.38975671910369</v>
       </c>
       <c r="G5">
-        <v>33.52505171708774</v>
+        <v>28.96904805493272</v>
       </c>
       <c r="H5">
-        <v>15.41101318196059</v>
+        <v>10.27326500859898</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.262737204131199</v>
+        <v>9.480425539716636</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.86764624249121</v>
+        <v>25.49348606845248</v>
       </c>
       <c r="N5">
-        <v>19.48528959959164</v>
+        <v>13.05259321284185</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.76645046888712</v>
+        <v>10.53593626417219</v>
       </c>
       <c r="C6">
-        <v>4.660848855290743</v>
+        <v>5.745075675204717</v>
       </c>
       <c r="D6">
-        <v>5.174348074997267</v>
+        <v>4.238844874707974</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.95373809411303</v>
+        <v>21.36353305077432</v>
       </c>
       <c r="G6">
-        <v>33.520475582966</v>
+        <v>28.92879493211118</v>
       </c>
       <c r="H6">
-        <v>15.41241295496094</v>
+        <v>10.27173560241349</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.256693832079854</v>
+        <v>9.452388514847469</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.84291810217589</v>
+        <v>25.39171046714376</v>
       </c>
       <c r="N6">
-        <v>19.48804195294761</v>
+        <v>13.06213159514128</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.834984701109599</v>
+        <v>10.79064236656459</v>
       </c>
       <c r="C7">
-        <v>4.697695545332333</v>
+        <v>5.829091706750419</v>
       </c>
       <c r="D7">
-        <v>5.18137425825585</v>
+        <v>4.253618932049528</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.96687050836189</v>
+        <v>21.54659790565949</v>
       </c>
       <c r="G7">
-        <v>33.55312650880376</v>
+        <v>29.20972525736363</v>
       </c>
       <c r="H7">
-        <v>15.40293068757269</v>
+        <v>10.28295476736686</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.298732197689279</v>
+        <v>9.645263215701837</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.01458902241837</v>
+        <v>26.09325798939535</v>
       </c>
       <c r="N7">
-        <v>19.46910388203826</v>
+        <v>12.99621182415024</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.136207166307548</v>
+        <v>11.85163793868679</v>
       </c>
       <c r="C8">
-        <v>4.854747916808733</v>
+        <v>6.184296911472082</v>
       </c>
       <c r="D8">
-        <v>5.211447731707866</v>
+        <v>4.316293546665171</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.04015443768767</v>
+        <v>22.37947552792153</v>
       </c>
       <c r="G8">
-        <v>33.71904709552842</v>
+        <v>30.48606731236479</v>
       </c>
       <c r="H8">
-        <v>15.36687709599117</v>
+        <v>10.34784415078857</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.486122448185613</v>
+        <v>10.45320484486289</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.77112443080883</v>
+        <v>29.07359731302804</v>
       </c>
       <c r="N8">
-        <v>19.38964195081922</v>
+        <v>12.71222596570207</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.716287808207325</v>
+        <v>13.70863250058507</v>
       </c>
       <c r="C9">
-        <v>5.141321731131037</v>
+        <v>6.821640834288278</v>
       </c>
       <c r="D9">
-        <v>5.266986654790154</v>
+        <v>4.428618316430661</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>27.23841616172269</v>
+        <v>24.09614655905199</v>
       </c>
       <c r="G9">
-        <v>34.12145164362891</v>
+        <v>33.11109119975548</v>
       </c>
       <c r="H9">
-        <v>15.31704563723854</v>
+        <v>10.5347339676382</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.856965611006476</v>
+        <v>11.88063134896657</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.23529182406624</v>
+        <v>34.56636552443237</v>
       </c>
       <c r="N9">
-        <v>19.24851564455164</v>
+        <v>12.17794239901884</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.13085177429639</v>
+        <v>14.93936111616014</v>
       </c>
       <c r="C10">
-        <v>5.337659789279462</v>
+        <v>7.251149960589158</v>
       </c>
       <c r="D10">
-        <v>5.305622603666517</v>
+        <v>4.502980808377333</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>27.41668317894058</v>
+        <v>25.40423047783563</v>
       </c>
       <c r="G10">
-        <v>34.46244362415755</v>
+        <v>35.10935382004356</v>
       </c>
       <c r="H10">
-        <v>15.29320730794206</v>
+        <v>10.71254795420353</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.128518200917576</v>
+        <v>12.83299670877305</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.28646077334837</v>
+        <v>38.46536002248204</v>
       </c>
       <c r="N10">
-        <v>19.15372719942405</v>
+        <v>11.79659555414944</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.31595003317105</v>
+        <v>15.47084925342994</v>
       </c>
       <c r="C11">
-        <v>5.42368256956825</v>
+        <v>7.437576144302407</v>
       </c>
       <c r="D11">
-        <v>5.322712771262961</v>
+        <v>4.534549928451261</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.50468454786051</v>
+        <v>26.00931698919968</v>
       </c>
       <c r="G11">
-        <v>34.62700113022541</v>
+        <v>36.03381205855884</v>
       </c>
       <c r="H11">
-        <v>15.28514471673489</v>
+        <v>10.80318727512366</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.25125902457056</v>
+        <v>13.24529724026646</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.75696930947696</v>
+        <v>40.2331437989208</v>
       </c>
       <c r="N11">
-        <v>19.11252402755295</v>
+        <v>11.62477941030748</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.3854673134243</v>
+        <v>15.66807835471312</v>
       </c>
       <c r="C12">
-        <v>5.455768114098496</v>
+        <v>7.506830065314844</v>
       </c>
       <c r="D12">
-        <v>5.329113231945664</v>
+        <v>4.546125820835431</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.53898385489197</v>
+        <v>26.23993951336218</v>
       </c>
       <c r="G12">
-        <v>34.690632313763</v>
+        <v>36.38624086793165</v>
       </c>
       <c r="H12">
-        <v>15.28249208239367</v>
+        <v>10.83899753690601</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.297576857429572</v>
+        <v>13.39841259971485</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.93386134027847</v>
+        <v>40.90440399291124</v>
       </c>
       <c r="N12">
-        <v>19.09719611726489</v>
+        <v>11.55987057020761</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.37052222326885</v>
+        <v>15.62578022028882</v>
       </c>
       <c r="C13">
-        <v>5.448879923190409</v>
+        <v>7.491975618766718</v>
       </c>
       <c r="D13">
-        <v>5.327737967585082</v>
+        <v>4.543650601232444</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.53155382325802</v>
+        <v>26.19020313535911</v>
       </c>
       <c r="G13">
-        <v>34.67687030669521</v>
+        <v>36.31023073382393</v>
       </c>
       <c r="H13">
-        <v>15.2830455558904</v>
+        <v>10.83121757157202</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.287609402557282</v>
+        <v>13.36557059071022</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.89582399503377</v>
+        <v>40.75970284990758</v>
       </c>
       <c r="N13">
-        <v>19.10048504549824</v>
+        <v>11.57384462284848</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.32168119414064</v>
+        <v>15.48715599351434</v>
       </c>
       <c r="C14">
-        <v>5.426332161371193</v>
+        <v>7.443300934085652</v>
       </c>
       <c r="D14">
-        <v>5.323240776214702</v>
+        <v>4.535510232998016</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>27.50748693957509</v>
+        <v>26.02826009298421</v>
       </c>
       <c r="G14">
-        <v>34.63220995623404</v>
+        <v>36.06275814877488</v>
       </c>
       <c r="H14">
-        <v>15.28491845398027</v>
+        <v>10.80610308603984</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.255073122608035</v>
+        <v>13.25795456333754</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.77154891009991</v>
+        <v>40.28831368798259</v>
       </c>
       <c r="N14">
-        <v>19.11125748732472</v>
+        <v>11.61943680786778</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.29168763515643</v>
+        <v>15.40172067978155</v>
       </c>
       <c r="C15">
-        <v>5.41245682161103</v>
+        <v>7.413309822417373</v>
       </c>
       <c r="D15">
-        <v>5.320476801171075</v>
+        <v>4.530472869150576</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>27.49287169977303</v>
+        <v>25.92926175602717</v>
       </c>
       <c r="G15">
-        <v>34.6050244444672</v>
+        <v>35.9114870219104</v>
       </c>
       <c r="H15">
-        <v>15.28611782707783</v>
+        <v>10.79091606880139</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.235121302786336</v>
+        <v>13.1916440052753</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.69525529522716</v>
+        <v>39.99990684709434</v>
       </c>
       <c r="N15">
-        <v>19.1178916884835</v>
+        <v>11.64738047265725</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.11867852002118</v>
+        <v>14.90406011131059</v>
       </c>
       <c r="C16">
-        <v>5.331970346739405</v>
+        <v>7.238781926033774</v>
       </c>
       <c r="D16">
-        <v>5.304495831253697</v>
+        <v>4.500867946359221</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>27.41106955671495</v>
+        <v>25.36489110857855</v>
       </c>
       <c r="G16">
-        <v>34.45187594079827</v>
+        <v>35.04925801448035</v>
       </c>
       <c r="H16">
-        <v>15.29379023596244</v>
+        <v>10.70682775606011</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.120476763203031</v>
+        <v>12.80563036577288</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.25554209649647</v>
+        <v>38.34992522708421</v>
       </c>
       <c r="N16">
-        <v>19.15645842415999</v>
+        <v>11.80785087693273</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.01159502956225</v>
+        <v>14.59152694507734</v>
       </c>
       <c r="C17">
-        <v>5.281739390323835</v>
+        <v>7.129384579216129</v>
       </c>
       <c r="D17">
-        <v>5.29456667077324</v>
+        <v>4.482093550279806</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>27.36264325141697</v>
+        <v>25.02125175651247</v>
       </c>
       <c r="G17">
-        <v>34.36031387769743</v>
+        <v>34.52432455713812</v>
       </c>
       <c r="H17">
-        <v>15.29920984094078</v>
+        <v>10.6577977905921</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.049909002752129</v>
+        <v>12.56345932960304</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.98369633148512</v>
+        <v>37.33789102866989</v>
       </c>
       <c r="N17">
-        <v>19.18060819710647</v>
+        <v>11.90666665267761</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.949679054925717</v>
+        <v>14.40909241970534</v>
       </c>
       <c r="C18">
-        <v>5.252538833168711</v>
+        <v>7.065622303429427</v>
       </c>
       <c r="D18">
-        <v>5.288810063435566</v>
+        <v>4.47108628668487</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>27.33544101477883</v>
+        <v>24.82453773367805</v>
       </c>
       <c r="G18">
-        <v>34.30854080931621</v>
+        <v>34.22383565440501</v>
       </c>
       <c r="H18">
-        <v>15.3025888481484</v>
+        <v>10.63050938744239</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.009248683454215</v>
+        <v>12.4221985781538</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.82662499388166</v>
+        <v>36.75504418848644</v>
       </c>
       <c r="N18">
-        <v>19.19467894870405</v>
+        <v>11.96366536261475</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.928662003195114</v>
+        <v>14.34686257952405</v>
       </c>
       <c r="C19">
-        <v>5.242599460168465</v>
+        <v>7.043890742055699</v>
       </c>
       <c r="D19">
-        <v>5.286853183227244</v>
+        <v>4.467324994058423</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>27.3263431888434</v>
+        <v>24.75809445950705</v>
       </c>
       <c r="G19">
-        <v>34.2911655544914</v>
+        <v>34.12234008781228</v>
       </c>
       <c r="H19">
-        <v>15.30377786772148</v>
+        <v>10.62142423354808</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.995470993722504</v>
+        <v>12.37403178844092</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.77332654662257</v>
+        <v>36.55750317922079</v>
       </c>
       <c r="N19">
-        <v>19.19947407784141</v>
+        <v>11.9829942513021</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.02302837577395</v>
+        <v>14.62507301306921</v>
       </c>
       <c r="C20">
-        <v>5.28711866634044</v>
+        <v>7.141117389076928</v>
       </c>
       <c r="D20">
-        <v>5.295628378205868</v>
+        <v>4.484114066135859</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>27.36773103367936</v>
+        <v>25.05773550754467</v>
       </c>
       <c r="G20">
-        <v>34.36996888351251</v>
+        <v>34.58005507257459</v>
       </c>
       <c r="H20">
-        <v>15.29860581601784</v>
+        <v>10.66292210060015</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.057428826540031</v>
+        <v>12.58944279659389</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.01270988237681</v>
+        <v>37.44568450913896</v>
       </c>
       <c r="N20">
-        <v>19.17801874319435</v>
+        <v>11.89613126329919</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.33604316181844</v>
+        <v>15.52798240333583</v>
       </c>
       <c r="C21">
-        <v>5.432968387992535</v>
+        <v>7.457634753150895</v>
       </c>
       <c r="D21">
-        <v>5.324563654137835</v>
+        <v>4.537912034265085</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>27.51452965518185</v>
+        <v>26.07578557140828</v>
       </c>
       <c r="G21">
-        <v>34.6452923813528</v>
+        <v>36.13538120310101</v>
       </c>
       <c r="H21">
-        <v>15.28435746572616</v>
+        <v>10.81343874012508</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.264634568989885</v>
+        <v>13.2896458335249</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.80808755323138</v>
+        <v>40.42669682117494</v>
       </c>
       <c r="N21">
-        <v>19.10808590703155</v>
+        <v>11.60604189656476</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.53723259284068</v>
+        <v>16.09459345178392</v>
       </c>
       <c r="C22">
-        <v>5.525430564285868</v>
+        <v>7.656643901392865</v>
       </c>
       <c r="D22">
-        <v>5.343058798633841</v>
+        <v>4.570828308540979</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>27.61614512125516</v>
+        <v>26.74989398753374</v>
       </c>
       <c r="G22">
-        <v>34.83288702624247</v>
+        <v>37.16576970158719</v>
       </c>
       <c r="H22">
-        <v>15.27737987356204</v>
+        <v>10.9205243769121</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.399093832042205</v>
+        <v>13.72969757992971</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.32038622368546</v>
+        <v>42.38757058745828</v>
       </c>
       <c r="N22">
-        <v>19.06398237314809</v>
+        <v>11.41728992715474</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.43018639554793</v>
+        <v>15.79431704974008</v>
       </c>
       <c r="C23">
-        <v>5.476348254392343</v>
+        <v>7.551168041231472</v>
       </c>
       <c r="D23">
-        <v>5.33322608866601</v>
+        <v>4.55348748872499</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.56139825536871</v>
+        <v>26.38927522861944</v>
       </c>
       <c r="G23">
-        <v>34.73207787626031</v>
+        <v>36.61448242101134</v>
       </c>
       <c r="H23">
-        <v>15.28089020260372</v>
+        <v>10.86254293878062</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.327433617235185</v>
+        <v>13.49644337976842</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.04770519167154</v>
+        <v>41.33874814392218</v>
       </c>
       <c r="N23">
-        <v>19.08737495850187</v>
+        <v>11.51798910275084</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.0178604514716</v>
+        <v>14.60991542063348</v>
       </c>
       <c r="C24">
-        <v>5.284687697729735</v>
+        <v>7.135815686383555</v>
       </c>
       <c r="D24">
-        <v>5.295148530304101</v>
+        <v>4.483201252418213</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>27.36542885658566</v>
+        <v>25.04123856240954</v>
       </c>
       <c r="G24">
-        <v>34.36560115127495</v>
+        <v>34.55485525864719</v>
       </c>
       <c r="H24">
-        <v>15.29887807590326</v>
+        <v>10.66060260436698</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.05402939079716</v>
+        <v>12.57770200453976</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.99959528318082</v>
+        <v>37.39695442908108</v>
       </c>
       <c r="N24">
-        <v>19.17918885364213</v>
+        <v>11.90089372062082</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.561050761755732</v>
+        <v>13.22993147240771</v>
       </c>
       <c r="C25">
-        <v>5.066213712236584</v>
+        <v>6.655843801826962</v>
       </c>
       <c r="D25">
-        <v>5.252337385847698</v>
+        <v>4.399524196085965</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.17900099224918</v>
+        <v>23.62332321109314</v>
       </c>
       <c r="G25">
-        <v>34.0044966900619</v>
+        <v>32.38856078856514</v>
       </c>
       <c r="H25">
-        <v>15.32828650364864</v>
+        <v>10.47736976830167</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.756592622964893</v>
+        <v>11.51137428617425</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.8426488938148</v>
+        <v>33.111023945023</v>
       </c>
       <c r="N25">
-        <v>19.2851271173574</v>
+        <v>12.32029940136759</v>
       </c>
       <c r="O25">
         <v>0</v>
